--- a/traversal-search/backend/input.xlsx
+++ b/traversal-search/backend/input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntunodejs\root\repos\react-apps\traversal-search\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910179D0-C174-47E2-85B7-9C091F2F9479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A8DFC-72B2-4D3D-9821-4CFCC1AC2CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="24540" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>本</t>
     <rPh sb="0" eb="1">
@@ -53,6 +54,17 @@
   </si>
   <si>
     <t>サンプル出版社</t>
+    <rPh sb="4" eb="7">
+      <t>シュッパンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル出版社2</t>
     <rPh sb="4" eb="7">
       <t>シュッパンシャ</t>
     </rPh>
@@ -381,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -411,6 +423,66 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31564F22-95FE-4F79-8610-F1A1A22829B3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
